--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>56.47185866666666</v>
+        <v>0.1510096666666667</v>
       </c>
       <c r="H2">
-        <v>169.415576</v>
+        <v>0.453029</v>
       </c>
       <c r="I2">
-        <v>0.8070274173741353</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="J2">
-        <v>0.8070274173741354</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.890486333333333</v>
+        <v>0.07058066666666667</v>
       </c>
       <c r="N2">
-        <v>5.671459</v>
+        <v>0.211742</v>
       </c>
       <c r="O2">
-        <v>0.9442400689667343</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="P2">
-        <v>0.9442400689667344</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="Q2">
-        <v>106.7592770272649</v>
+        <v>0.01065836294644444</v>
       </c>
       <c r="R2">
-        <v>960.833493245384</v>
+        <v>0.09592526651800001</v>
       </c>
       <c r="S2">
-        <v>0.762027624239399</v>
+        <v>0.0003766029356602054</v>
       </c>
       <c r="T2">
-        <v>0.7620276242393992</v>
+        <v>0.0003766029356602055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.1510096666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.453029</v>
+      </c>
+      <c r="I3">
+        <v>0.01105950042918124</v>
+      </c>
+      <c r="J3">
+        <v>0.01105950042918124</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>56.47185866666666</v>
-      </c>
-      <c r="H3">
-        <v>169.415576</v>
-      </c>
-      <c r="I3">
-        <v>0.8070274173741353</v>
-      </c>
-      <c r="J3">
-        <v>0.8070274173741354</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1116383333333333</v>
+        <v>1.890486333333333</v>
       </c>
       <c r="N3">
-        <v>0.334915</v>
+        <v>5.671459</v>
       </c>
       <c r="O3">
-        <v>0.05575993103326565</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="P3">
-        <v>0.05575993103326566</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="Q3">
-        <v>6.304424181782222</v>
+        <v>0.2854817110345556</v>
       </c>
       <c r="R3">
-        <v>56.73981763604</v>
+        <v>2.569335399311</v>
       </c>
       <c r="S3">
-        <v>0.04499979313473628</v>
+        <v>0.01008721986604686</v>
       </c>
       <c r="T3">
-        <v>0.04499979313473629</v>
+        <v>0.01008721986604686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.23495333333333</v>
+        <v>0.1510096666666667</v>
       </c>
       <c r="H4">
-        <v>30.70486</v>
+        <v>0.453029</v>
       </c>
       <c r="I4">
-        <v>0.1462655586439962</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="J4">
-        <v>0.1462655586439962</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.890486333333333</v>
+        <v>0.1116383333333333</v>
       </c>
       <c r="N4">
-        <v>5.671459</v>
+        <v>0.334915</v>
       </c>
       <c r="O4">
-        <v>0.9442400689667343</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="P4">
-        <v>0.9442400689667344</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="Q4">
-        <v>19.34903939897111</v>
+        <v>0.01685846750388889</v>
       </c>
       <c r="R4">
-        <v>174.14135459074</v>
+        <v>0.151726207535</v>
       </c>
       <c r="S4">
-        <v>0.1381098011814649</v>
+        <v>0.0005956776274741796</v>
       </c>
       <c r="T4">
-        <v>0.1381098011814649</v>
+        <v>0.0005956776274741796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>30.70486</v>
       </c>
       <c r="I5">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J5">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1116383333333333</v>
+        <v>0.07058066666666667</v>
       </c>
       <c r="N5">
-        <v>0.334915</v>
+        <v>0.211742</v>
       </c>
       <c r="O5">
-        <v>0.05575993103326565</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="P5">
-        <v>0.05575993103326566</v>
+        <v>0.03405243646146196</v>
       </c>
       <c r="Q5">
-        <v>1.142613131877778</v>
+        <v>0.7223898295688889</v>
       </c>
       <c r="R5">
-        <v>10.2835181869</v>
+        <v>6.501508466120001</v>
       </c>
       <c r="S5">
-        <v>0.008155757462531299</v>
+        <v>0.0255249452353726</v>
       </c>
       <c r="T5">
-        <v>0.008155757462531303</v>
+        <v>0.02552494523537261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.268330666666666</v>
+        <v>10.23495333333333</v>
       </c>
       <c r="H6">
-        <v>9.804991999999999</v>
+        <v>30.70486</v>
       </c>
       <c r="I6">
-        <v>0.04670702398186845</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J6">
-        <v>0.04670702398186845</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>5.671459</v>
       </c>
       <c r="O6">
-        <v>0.9442400689667343</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="P6">
-        <v>0.9442400689667344</v>
+        <v>0.9120863940138783</v>
       </c>
       <c r="Q6">
-        <v>6.178734458147555</v>
+        <v>19.34903939897111</v>
       </c>
       <c r="R6">
-        <v>55.608610123328</v>
+        <v>174.14135459074</v>
       </c>
       <c r="S6">
-        <v>0.04410264354587037</v>
+        <v>0.6836795741027339</v>
       </c>
       <c r="T6">
-        <v>0.04410264354587039</v>
+        <v>0.6836795741027339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.268330666666666</v>
+        <v>10.23495333333333</v>
       </c>
       <c r="H7">
-        <v>9.804991999999999</v>
+        <v>30.70486</v>
       </c>
       <c r="I7">
-        <v>0.04670702398186845</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J7">
-        <v>0.04670702398186845</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,22 +868,208 @@
         <v>0.334915</v>
       </c>
       <c r="O7">
-        <v>0.05575993103326565</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="P7">
-        <v>0.05575993103326566</v>
+        <v>0.05386116952465989</v>
       </c>
       <c r="Q7">
+        <v>1.142613131877778</v>
+      </c>
+      <c r="R7">
+        <v>10.2835181869</v>
+      </c>
+      <c r="S7">
+        <v>0.04037312877702495</v>
+      </c>
+      <c r="T7">
+        <v>0.04037312877702495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.268330666666666</v>
+      </c>
+      <c r="H8">
+        <v>9.804991999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2393628514556874</v>
+      </c>
+      <c r="J8">
+        <v>0.2393628514556874</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07058066666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.211742</v>
+      </c>
+      <c r="O8">
+        <v>0.03405243646146196</v>
+      </c>
+      <c r="P8">
+        <v>0.03405243646146196</v>
+      </c>
+      <c r="Q8">
+        <v>0.2306809573404444</v>
+      </c>
+      <c r="R8">
+        <v>2.076128616064</v>
+      </c>
+      <c r="S8">
+        <v>0.008150888290429151</v>
+      </c>
+      <c r="T8">
+        <v>0.008150888290429153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.268330666666666</v>
+      </c>
+      <c r="H9">
+        <v>9.804991999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2393628514556874</v>
+      </c>
+      <c r="J9">
+        <v>0.2393628514556874</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.890486333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.671459</v>
+      </c>
+      <c r="O9">
+        <v>0.9120863940138783</v>
+      </c>
+      <c r="P9">
+        <v>0.9120863940138783</v>
+      </c>
+      <c r="Q9">
+        <v>6.178734458147555</v>
+      </c>
+      <c r="R9">
+        <v>55.608610123328</v>
+      </c>
+      <c r="S9">
+        <v>0.2183196000450975</v>
+      </c>
+      <c r="T9">
+        <v>0.2183196000450975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.268330666666666</v>
+      </c>
+      <c r="H10">
+        <v>9.804991999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2393628514556874</v>
+      </c>
+      <c r="J10">
+        <v>0.2393628514556874</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1116383333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.334915</v>
+      </c>
+      <c r="O10">
+        <v>0.05386116952465989</v>
+      </c>
+      <c r="P10">
+        <v>0.05386116952465989</v>
+      </c>
+      <c r="Q10">
         <v>0.3648709884088888</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>3.28383889568</v>
       </c>
-      <c r="S7">
-        <v>0.00260438043599807</v>
-      </c>
-      <c r="T7">
-        <v>0.00260438043599807</v>
+      <c r="S10">
+        <v>0.01289236312016076</v>
+      </c>
+      <c r="T10">
+        <v>0.01289236312016076</v>
       </c>
     </row>
   </sheetData>
